--- a/data/MyExcelKunden_V001.xlsx
+++ b/data/MyExcelKunden_V001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="1" windowWidth="24940" windowHeight="11630"/>
+    <workbookView activeTab="0" windowWidth="24940" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="Firmen" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,9 @@
     <sheet name="Werte" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="B" localSheetId="0">#NAME?</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Firmen"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#"#REF!"</definedName>
-    <definedName name="B" localSheetId="0">#NAME?</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Kontakte"</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#"#REF!"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Interessenten"</definedName>
@@ -230,7 +230,7 @@
       <protection locked="1" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
@@ -320,6 +320,10 @@
       <protection locked="1" hidden="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="49" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
@@ -370,8 +374,8 @@
   </sheetPr>
   <dimension ref="A1:XFD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5"/>
@@ -384,7 +388,7 @@
     <col min="7" max="7" style="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" style="1" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" style="1" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" style="2" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" style="2" width="6.428185096153847" bestFit="1" customWidth="1"/>
     <col min="11" max="11" style="1" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" style="1" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" style="1" width="6.54296875" bestFit="1" customWidth="1"/>
@@ -657,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:XFD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="14.5"/>
@@ -805,7 +809,7 @@
       <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="23">
         <v>80636</v>
       </c>
       <c r="L3" t="s">
@@ -827,18 +831,21 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>Werte!$F$2:$F$6</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I2:I3">
       <formula1>Werte!$B$2:$B$9</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
-      <formula1>AND(LEN(K2)=5,ISNUMBER(VALUE(K2)))</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="K2">
+      <formula1>AND(LEN(G2)=5,ISNUMBER(VALUE(G2)))</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="M2:M3">
       <formula1>Werte!$D$2:$D$5</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="K3">
+      <formula1>AND(LEN(K3)=5,ISNUMBER(VALUE(K3)))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -878,7 +885,7 @@
     <col min="8" max="8" style="1" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" style="1" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" style="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" style="23" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" style="24" width="12.453125" customWidth="1"/>
     <col min="12" max="12" style="1" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" style="1" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" style="1" width="10" bestFit="1" customWidth="1"/>
@@ -917,7 +924,7 @@
       <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="25" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -939,12 +946,12 @@
           <t>Malzwerke AG</t>
         </is>
       </c>
-      <c r="C2" s="25" t="inlineStr">
+      <c r="C2" s="26" t="inlineStr">
         <is>
           <t>www.malz.de</t>
         </is>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>31</v>
       </c>
       <c r="E2" t="s">
@@ -955,7 +962,7 @@
           <t>Burlow</t>
         </is>
       </c>
-      <c r="G2" s="27" t="inlineStr">
+      <c r="G2" s="28" t="inlineStr">
         <is>
           <t>jb@malz.de</t>
         </is>
@@ -963,7 +970,7 @@
       <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="29" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -971,7 +978,7 @@
           <t>Malzstrasse 9</t>
         </is>
       </c>
-      <c r="K2" s="29" t="inlineStr">
+      <c r="K2" s="30" t="inlineStr">
         <is>
           <t>80663</t>
         </is>
@@ -979,10 +986,10 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="32" t="s">
         <v>23</v>
       </c>
       <c r="O2" t="inlineStr">
